--- a/3爱情.xlsx
+++ b/3爱情.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="话题信息" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073">
   <si>
     <t>1综旨：怎样让女孩子喜欢上我，如何讨女人欢心</t>
   </si>
@@ -3491,9 +3491,15 @@
     <t>我那里</t>
   </si>
   <si>
+    <t>独眼怪</t>
+  </si>
+  <si>
     <t>洗澡从来不往下看吗</t>
   </si>
   <si>
+    <t>小光头</t>
+  </si>
+  <si>
     <t>那话厉害</t>
   </si>
   <si>
@@ -3695,6 +3701,9 @@
     <t>妹子上炕</t>
   </si>
   <si>
+    <t>邪教仪式</t>
+  </si>
+  <si>
     <t>性的安全</t>
   </si>
   <si>
@@ -5478,6 +5487,9 @@
   </si>
   <si>
     <t>没别的事，就是谈谈恋爱，腻腻歪歪，亲亲我我</t>
+  </si>
+  <si>
+    <t>看起来不大像处女</t>
   </si>
   <si>
     <t>自我否定</t>
@@ -6239,9 +6251,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -7252,7 +7264,7 @@
   <sheetPr/>
   <dimension ref="A1:IV403"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" topLeftCell="A396" workbookViewId="0">
+    <sheetView zoomScale="147" zoomScaleNormal="147" topLeftCell="A396" workbookViewId="0">
       <selection activeCell="A404" sqref="A404"/>
     </sheetView>
   </sheetViews>
@@ -19604,49 +19616,49 @@
   <sheetData>
     <row r="1" ht="22.5" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" ht="22.5" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" ht="22.5" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1867</v>
+        <v>1871</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" ht="22.5" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>1868</v>
+        <v>1872</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" ht="22.5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>1869</v>
+        <v>1873</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" ht="22.5" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" ht="22.5" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>1871</v>
+        <v>1875</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" ht="22.5" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>1872</v>
+        <v>1876</v>
       </c>
       <c r="B8" s="1"/>
     </row>
@@ -19683,10 +19695,10 @@
     <row r="1" ht="22.5" spans="1:33">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1873</v>
+        <v>1877</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1874</v>
+        <v>1878</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -19721,11 +19733,11 @@
     </row>
     <row r="2" ht="22.5" spans="1:33">
       <c r="A2" s="1" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -19760,41 +19772,41 @@
     </row>
     <row r="3" ht="22.5" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>1882</v>
+        <v>1886</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -19811,11 +19823,11 @@
     </row>
     <row r="4" ht="22.5" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -19850,23 +19862,23 @@
     </row>
     <row r="5" ht="22.5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>1884</v>
+        <v>1888</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1886</v>
+        <v>1890</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -19893,13 +19905,13 @@
     </row>
     <row r="6" ht="22.5" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -19934,31 +19946,31 @@
     </row>
     <row r="7" ht="25.5" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1889</v>
+        <v>1893</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="4" t="s">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -19983,31 +19995,31 @@
     </row>
     <row r="8" ht="22.5" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1895</v>
+        <v>1899</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1896</v>
+        <v>1900</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>1900</v>
+        <v>1904</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -20032,24 +20044,24 @@
     </row>
     <row r="9" ht="22.5" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>1901</v>
+        <v>1905</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>1902</v>
+        <v>1906</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -20075,49 +20087,49 @@
     </row>
     <row r="10" ht="22.5" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>1904</v>
+        <v>1908</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>1905</v>
+        <v>1909</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -20128,17 +20140,17 @@
     </row>
     <row r="11" ht="22.5" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>1914</v>
+        <v>1918</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -20171,24 +20183,24 @@
     </row>
     <row r="12" ht="22.5" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>1915</v>
+        <v>1919</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -20216,11 +20228,11 @@
     </row>
     <row r="13" ht="22.5" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -20255,11 +20267,11 @@
     </row>
     <row r="14" ht="22.5" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -20294,11 +20306,11 @@
     </row>
     <row r="15" ht="22.5" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -20333,17 +20345,17 @@
     </row>
     <row r="16" ht="22.5" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -20376,13 +20388,13 @@
     </row>
     <row r="17" ht="22.5" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -20417,11 +20429,11 @@
     </row>
     <row r="18" ht="22.5" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -20456,13 +20468,13 @@
     </row>
     <row r="19" ht="22.5" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -20497,11 +20509,11 @@
     </row>
     <row r="20" ht="22.5" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -20536,13 +20548,13 @@
     </row>
     <row r="21" ht="22.5" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -20577,30 +20589,30 @@
     </row>
     <row r="22" ht="22.5" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -20624,19 +20636,19 @@
     </row>
     <row r="23" ht="22.5" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -20667,7 +20679,7 @@
     </row>
     <row r="24" ht="22.5" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -20704,24 +20716,24 @@
     </row>
     <row r="25" ht="22.5" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -20749,23 +20761,23 @@
     </row>
     <row r="26" ht="22.5" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -20794,33 +20806,33 @@
     </row>
     <row r="27" ht="22.5" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -20841,23 +20853,23 @@
     </row>
     <row r="28" ht="22.5" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -20886,13 +20898,13 @@
     </row>
     <row r="29" ht="22.5" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -20927,88 +20939,88 @@
     </row>
     <row r="30" ht="25.5" spans="1:34">
       <c r="A30" s="1" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="5" t="s">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" t="s">
-        <v>1970</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="31" ht="22.5" spans="1:33">
       <c r="A31" s="1" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -21034,22 +21046,22 @@
     </row>
     <row r="32" ht="22.5" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -21079,36 +21091,36 @@
     </row>
     <row r="33" ht="22.5" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -21128,15 +21140,15 @@
     </row>
     <row r="34" ht="22.5" spans="1:33">
       <c r="A34" s="1" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -21169,17 +21181,17 @@
     </row>
     <row r="35" ht="22.5" spans="1:33">
       <c r="A35" s="1" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -21210,11 +21222,11 @@
     </row>
     <row r="36" ht="22.5" spans="1:33">
       <c r="A36" s="1" t="s">
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -21249,22 +21261,22 @@
     </row>
     <row r="37" ht="22.5" spans="1:33">
       <c r="A37" s="1" t="s">
-        <v>1827</v>
+        <v>1831</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -21294,17 +21306,17 @@
     </row>
     <row r="38" ht="22.5" spans="1:33">
       <c r="A38" s="1" t="s">
-        <v>1828</v>
+        <v>1832</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -21337,11 +21349,11 @@
     </row>
     <row r="39" ht="22.5" spans="1:33">
       <c r="A39" s="1" t="s">
-        <v>1830</v>
+        <v>1834</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -21376,17 +21388,17 @@
     </row>
     <row r="40" ht="22.5" spans="1:33">
       <c r="A40" s="1" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -21419,13 +21431,13 @@
     </row>
     <row r="41" ht="22.5" spans="1:33">
       <c r="A41" s="1" t="s">
-        <v>1832</v>
+        <v>1836</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -21460,30 +21472,30 @@
     </row>
     <row r="42" ht="22.5" spans="1:33">
       <c r="A42" s="1" t="s">
-        <v>1834</v>
+        <v>1838</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -21507,13 +21519,13 @@
     </row>
     <row r="43" ht="22.5" spans="1:33">
       <c r="A43" s="1" t="s">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -21548,25 +21560,25 @@
     </row>
     <row r="44" ht="22.5" spans="1:33">
       <c r="A44" s="1" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -21593,19 +21605,19 @@
     </row>
     <row r="45" ht="22.5" spans="1:33">
       <c r="A45" s="1" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -21636,13 +21648,13 @@
     </row>
     <row r="46" ht="22.5" spans="1:33">
       <c r="A46" s="1" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -21677,11 +21689,11 @@
     </row>
     <row r="47" ht="22.5" spans="1:33">
       <c r="A47" s="1" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -21716,15 +21728,15 @@
     </row>
     <row r="48" ht="22.5" spans="1:33">
       <c r="A48" s="1" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -21757,13 +21769,13 @@
     </row>
     <row r="49" ht="22.5" spans="1:33">
       <c r="A49" s="1" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -21798,18 +21810,18 @@
     </row>
     <row r="50" ht="22.5" spans="1:33">
       <c r="A50" s="1" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>2025</v>
+        <v>2029</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>2027</v>
+        <v>2031</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -21841,10 +21853,10 @@
     </row>
     <row r="51" ht="22.5" spans="1:33">
       <c r="A51" s="1" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -21915,7 +21927,7 @@
     </row>
     <row r="53" ht="22.5" spans="1:33">
       <c r="A53" s="1" t="s">
-        <v>2029</v>
+        <v>2033</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -21952,54 +21964,54 @@
     </row>
     <row r="54" ht="22.5" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>2030</v>
+        <v>2034</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>2031</v>
+        <v>2035</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>2032</v>
+        <v>2036</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>2033</v>
+        <v>2037</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" t="s">
-        <v>2034</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="55" ht="22.5" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>2036</v>
+        <v>2040</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>2037</v>
+        <v>2041</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" ht="22.5" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -22011,17 +22023,17 @@
     </row>
     <row r="57" ht="22.5" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -22029,7 +22041,7 @@
     </row>
     <row r="58" ht="22.5" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -22043,7 +22055,7 @@
     </row>
     <row r="59" ht="22.5" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -22057,33 +22069,33 @@
     </row>
     <row r="60" ht="22.5" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="J60" s="1"/>
     </row>
     <row r="61" ht="22.5" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -22097,10 +22109,10 @@
     </row>
     <row r="62" ht="25.5" spans="1:10">
       <c r="A62" s="2" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="1"/>
@@ -22113,13 +22125,13 @@
     </row>
     <row r="63" ht="22.5" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -22131,7 +22143,7 @@
     </row>
     <row r="64" ht="22.5" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -22145,7 +22157,7 @@
     </row>
     <row r="65" ht="22.5" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -22159,7 +22171,7 @@
     </row>
     <row r="66" ht="22.5" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -22173,7 +22185,7 @@
     </row>
     <row r="67" ht="22.5" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -22187,7 +22199,7 @@
     </row>
     <row r="68" ht="22.5" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -22201,7 +22213,7 @@
     </row>
     <row r="69" ht="22.5" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -22215,7 +22227,7 @@
     </row>
     <row r="70" ht="22.5" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -22229,10 +22241,10 @@
     </row>
     <row r="71" ht="22.5" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -22245,17 +22257,17 @@
     </row>
     <row r="72" ht="22.5" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -30781,8 +30793,8 @@
   <sheetPr/>
   <dimension ref="A1:IV104"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -31742,7 +31754,7 @@
       <c r="IU21" s="8"/>
       <c r="IV21" s="8"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:10">
       <c r="A22" s="8" t="s">
         <v>1151</v>
       </c>
@@ -31755,180 +31767,186 @@
       <c r="E22" s="8" t="s">
         <v>1154</v>
       </c>
+      <c r="F22" s="8" t="s">
+        <v>1155</v>
+      </c>
       <c r="G22" s="8" t="s">
-        <v>1155</v>
+        <v>1156</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="8" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="8" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -31936,19 +31954,19 @@
         <v>1086</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -31956,62 +31974,64 @@
         <v>1086</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="8" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="8" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="43" spans="1:256">
       <c r="A43" s="8" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="8" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
+      <c r="L43" s="9" t="s">
+        <v>1225</v>
+      </c>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
@@ -32259,529 +32279,529 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="8" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="8" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="8" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="8" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="8" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="8" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="8" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="8" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="8" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="8" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="8" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="8" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="8" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="8" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="8" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="8" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="8" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="8" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="8" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="8" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="8" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="8" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="8" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="8" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="8" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="8" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="8" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="8" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="8" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="8" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="8" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="8" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="8" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="8" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="8" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="8" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="8" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="8" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="8" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="8" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:256">
       <c r="A89" s="8" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -33040,7 +33060,7 @@
     </row>
     <row r="90" customFormat="1" spans="1:256">
       <c r="A90" s="8" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -33560,7 +33580,7 @@
     </row>
     <row r="92" customFormat="1" spans="1:256">
       <c r="A92" s="8" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -33820,7 +33840,7 @@
     </row>
     <row r="93" customFormat="1" spans="1:256">
       <c r="A93" s="8" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -34080,12 +34100,12 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="8" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="95" spans="1:256">
       <c r="A95" s="9" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -34346,11 +34366,11 @@
     <row r="96" spans="1:256">
       <c r="A96" s="9"/>
       <c r="B96" s="9" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
@@ -34607,13 +34627,13 @@
     </row>
     <row r="97" spans="1:256">
       <c r="A97" s="8" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
@@ -34870,43 +34890,43 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="8" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="8" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="8" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="8" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="9" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="8" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="8" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
     </row>
   </sheetData>
@@ -34934,98 +34954,98 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="7" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="7" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="7" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="7" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="7" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="7" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="7" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="7" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="15" ht="22.5" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="16" ht="22.5" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -35036,11 +35056,11 @@
     </row>
     <row r="17" ht="22.5" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="C17"/>
       <c r="D17" s="8" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="8"/>
@@ -35053,27 +35073,27 @@
     </row>
     <row r="18" ht="22.5" spans="1:12">
       <c r="A18" s="10" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="8" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -35081,19 +35101,19 @@
     </row>
     <row r="19" ht="22.5" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -35105,10 +35125,10 @@
     </row>
     <row r="20" ht="22.5" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -35123,13 +35143,13 @@
     </row>
     <row r="21" customFormat="1" spans="1:256">
       <c r="A21" s="8" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
@@ -35387,10 +35407,10 @@
     </row>
     <row r="22" ht="22.5" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -35405,10 +35425,10 @@
     </row>
     <row r="23" ht="22.5" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -35423,10 +35443,10 @@
     </row>
     <row r="24" ht="22.5" spans="1:256">
       <c r="A24" s="8" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -35685,10 +35705,10 @@
     </row>
     <row r="25" ht="22.5" spans="1:256">
       <c r="A25" s="8" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -35947,10 +35967,10 @@
     </row>
     <row r="26" ht="22.5" spans="1:256">
       <c r="A26" s="8" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -36209,18 +36229,18 @@
     </row>
     <row r="27" ht="22.5" spans="1:1">
       <c r="A27" s="8" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="28" ht="22.5" spans="1:256">
       <c r="A28" s="8" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -36478,19 +36498,19 @@
     </row>
     <row r="29" ht="22.5" spans="1:256">
       <c r="A29" s="8" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -36746,22 +36766,22 @@
     </row>
     <row r="30" ht="22.5" spans="1:256">
       <c r="A30" s="9" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
@@ -37016,10 +37036,10 @@
     </row>
     <row r="31" ht="22.5" spans="1:256">
       <c r="A31" s="8" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -37278,7 +37298,7 @@
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="7" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
     </row>
   </sheetData>
@@ -37306,7 +37326,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -37314,84 +37334,84 @@
         <v>586</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="8" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="8" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -37399,328 +37419,328 @@
         <v>586</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="8" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="8" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="14" ht="23.65" customHeight="1" spans="2:4">
       <c r="B14" s="8" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="8" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="8" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="8" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="8" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="8" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="8" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="8" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="8" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="8" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="8" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="8" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="8" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="8" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="8" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="8" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="8" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="8" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="8" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="8" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="8" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="8" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="8" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="8" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="8" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="8" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="8" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="8" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="8" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="8" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="8" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="8" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="8" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="9" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="B58" s="9"/>
     </row>
     <row r="59" ht="25.5" spans="1:2">
       <c r="A59" s="9" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="9" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="B60" s="9"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="9" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="B61" s="9"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="8" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="8" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="8" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="8" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -37730,7 +37750,7 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="8" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
     </row>
   </sheetData>
@@ -37757,15 +37777,15 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>993</v>
@@ -37773,58 +37793,58 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="7" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="7" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -37832,332 +37852,332 @@
         <v>358</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="7" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="7" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:7">
       <c r="B13" s="7" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="7" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="C19" s="7"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="7" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
       <c r="A22" s="7" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="7" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="7" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="7" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="7" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="7" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="7" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="7" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="7" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="7" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="7" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="7" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="7" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="43" ht="22.5" spans="1:1">
       <c r="A43" s="8" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="44" ht="22.5" spans="1:2">
       <c r="A44" s="8" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="B44" s="8"/>
     </row>
     <row r="45" ht="22.5" spans="1:2">
       <c r="A45" s="8" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="B45" s="8"/>
     </row>
     <row r="46" ht="22.5" spans="1:2">
       <c r="A46" s="8" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="B46" s="8"/>
     </row>
     <row r="47" ht="22.5" spans="1:2">
       <c r="A47" s="8" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="B47" s="8"/>
     </row>
     <row r="48" ht="22.5" spans="1:2">
       <c r="A48" s="8" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="B48" s="8"/>
     </row>
     <row r="49" ht="22.5" spans="1:2">
       <c r="A49" s="8" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="7" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
     </row>
   </sheetData>
@@ -38182,38 +38202,38 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:256">
       <c r="A2" s="8" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="8"/>
@@ -38466,7 +38486,7 @@
     </row>
     <row r="3" customFormat="1" spans="1:256">
       <c r="A3" s="8" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -38726,7 +38746,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:256">
       <c r="A4" s="8" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -38986,7 +39006,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:256">
       <c r="A5" s="8" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -39246,11 +39266,11 @@
     </row>
     <row r="6" customFormat="1" spans="1:256">
       <c r="A6" s="8" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
@@ -39508,7 +39528,7 @@
     </row>
     <row r="7" customFormat="1" spans="1:256">
       <c r="A7" s="8" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -39768,71 +39788,71 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:256">
       <c r="A13" s="8" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -40081,7 +40101,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:256">
       <c r="A14" s="8" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
@@ -40089,7 +40109,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -40345,10 +40365,10 @@
     </row>
     <row r="15" customFormat="1" spans="1:256">
       <c r="A15" s="8" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -40607,7 +40627,7 @@
     </row>
     <row r="16" customFormat="1" spans="1:256">
       <c r="A16" s="8" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
@@ -40867,11 +40887,11 @@
     </row>
     <row r="17" customFormat="1" spans="1:256">
       <c r="A17" s="8" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="8" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -41129,7 +41149,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:256">
       <c r="A18" s="8" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
@@ -41389,200 +41409,200 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="8" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="8" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="8" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="8" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="8" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="8" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="8" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="8" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="8" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="8" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="8" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="8" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="8" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="8" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -41590,196 +41610,196 @@
         <v>676</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="8" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="8" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="8" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="8" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="8" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="8" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="8" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="8" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="8" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="8" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="8" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="8" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="8" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="8" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="8" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="8" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="8" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="8" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="8" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="8" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="8" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="8" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="8" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="8" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="8" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
     </row>
   </sheetData>
@@ -41791,10 +41811,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="25.5"/>
@@ -41809,346 +41829,349 @@
     </row>
     <row r="2" ht="22.5" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="4" ht="22.5" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="5" ht="22.5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="11" ht="22.5" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="14" ht="22.5" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="16" ht="22.5" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="17" ht="22.5" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="19" ht="22.5" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="20" ht="22.5" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="24" ht="22.5" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="25" ht="22.5" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="26" ht="22.5" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="29" ht="22.5" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1817</v>
+        <v>1820</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>1821</v>
       </c>
     </row>
     <row r="31" ht="22.5" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="32" ht="22.5" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1821</v>
+        <v>1825</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>1822</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>1823</v>
+        <v>1827</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1824</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="35" ht="22.5" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="36" ht="22.5" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>1826</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="37" ht="22.5" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>1827</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>1828</v>
+        <v>1832</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1829</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="39" ht="22.5" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>1830</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="40" ht="22.5" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>1831</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="41" ht="22.5" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>1832</v>
+        <v>1836</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1833</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>1834</v>
+        <v>1838</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1835</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="43" ht="22.5" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>1837</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="44" ht="22.5" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="47" ht="22.5" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1845</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="49" ht="22.5" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="50" ht="22.5" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>1848</v>
+        <v>1852</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1849</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="52" ht="22.5" spans="1:1">
@@ -42173,20 +42196,20 @@
   <sheetData>
     <row r="1" ht="22.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>1850</v>
+        <v>1854</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" ht="22.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1852</v>
+        <v>1856</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -42194,7 +42217,7 @@
     <row r="3" ht="22.5" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -42202,7 +42225,7 @@
     <row r="4" ht="22.5" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1855</v>
+        <v>1859</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -42210,47 +42233,47 @@
     <row r="5" ht="22.5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>1856</v>
+        <v>1860</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" ht="22.5" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1858</v>
+        <v>1862</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" ht="22.5" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1859</v>
+        <v>1863</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" ht="22.5" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" ht="22.5" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1863</v>
+        <v>1867</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1864</v>
+        <v>1868</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>

--- a/3爱情.xlsx
+++ b/3爱情.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="7"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="话题信息" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074">
   <si>
     <t>1综旨：怎样让女孩子喜欢上我，如何讨女人欢心</t>
   </si>
@@ -3498,6 +3498,9 @@
   </si>
   <si>
     <t>小光头</t>
+  </si>
+  <si>
+    <t>铁棍</t>
   </si>
   <si>
     <t>那话厉害</t>
@@ -6251,9 +6254,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -7265,7 +7268,7 @@
   <dimension ref="A1:IV403"/>
   <sheetViews>
     <sheetView zoomScale="147" zoomScaleNormal="147" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404"/>
+      <selection activeCell="B404" sqref="B404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -19616,49 +19619,49 @@
   <sheetData>
     <row r="1" ht="22.5" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" ht="22.5" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" ht="22.5" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" ht="22.5" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" ht="22.5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" ht="22.5" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" ht="22.5" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" ht="22.5" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B8" s="1"/>
     </row>
@@ -19695,10 +19698,10 @@
     <row r="1" ht="22.5" spans="1:33">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -19733,11 +19736,11 @@
     </row>
     <row r="2" ht="22.5" spans="1:33">
       <c r="A2" s="1" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -19772,41 +19775,41 @@
     </row>
     <row r="3" ht="22.5" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -19823,11 +19826,11 @@
     </row>
     <row r="4" ht="22.5" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -19862,23 +19865,23 @@
     </row>
     <row r="5" ht="22.5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -19905,13 +19908,13 @@
     </row>
     <row r="6" ht="22.5" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -19946,31 +19949,31 @@
     </row>
     <row r="7" ht="25.5" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="4" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -19995,31 +19998,31 @@
     </row>
     <row r="8" ht="22.5" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -20044,24 +20047,24 @@
     </row>
     <row r="9" ht="22.5" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -20087,49 +20090,49 @@
     </row>
     <row r="10" ht="22.5" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -20140,17 +20143,17 @@
     </row>
     <row r="11" ht="22.5" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -20183,24 +20186,24 @@
     </row>
     <row r="12" ht="22.5" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -20228,11 +20231,11 @@
     </row>
     <row r="13" ht="22.5" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -20267,11 +20270,11 @@
     </row>
     <row r="14" ht="22.5" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -20306,11 +20309,11 @@
     </row>
     <row r="15" ht="22.5" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -20345,17 +20348,17 @@
     </row>
     <row r="16" ht="22.5" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -20388,13 +20391,13 @@
     </row>
     <row r="17" ht="22.5" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -20429,11 +20432,11 @@
     </row>
     <row r="18" ht="22.5" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -20468,13 +20471,13 @@
     </row>
     <row r="19" ht="22.5" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -20509,11 +20512,11 @@
     </row>
     <row r="20" ht="22.5" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -20548,13 +20551,13 @@
     </row>
     <row r="21" ht="22.5" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -20589,30 +20592,30 @@
     </row>
     <row r="22" ht="22.5" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -20636,19 +20639,19 @@
     </row>
     <row r="23" ht="22.5" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -20679,7 +20682,7 @@
     </row>
     <row r="24" ht="22.5" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -20716,24 +20719,24 @@
     </row>
     <row r="25" ht="22.5" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -20761,23 +20764,23 @@
     </row>
     <row r="26" ht="22.5" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -20806,33 +20809,33 @@
     </row>
     <row r="27" ht="22.5" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -20853,23 +20856,23 @@
     </row>
     <row r="28" ht="22.5" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -20898,13 +20901,13 @@
     </row>
     <row r="29" ht="22.5" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -20939,88 +20942,88 @@
     </row>
     <row r="30" ht="25.5" spans="1:34">
       <c r="A30" s="1" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="5" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="31" ht="22.5" spans="1:33">
       <c r="A31" s="1" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -21046,22 +21049,22 @@
     </row>
     <row r="32" ht="22.5" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -21091,36 +21094,36 @@
     </row>
     <row r="33" ht="22.5" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -21140,15 +21143,15 @@
     </row>
     <row r="34" ht="22.5" spans="1:33">
       <c r="A34" s="1" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -21181,17 +21184,17 @@
     </row>
     <row r="35" ht="22.5" spans="1:33">
       <c r="A35" s="1" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -21222,11 +21225,11 @@
     </row>
     <row r="36" ht="22.5" spans="1:33">
       <c r="A36" s="1" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -21261,22 +21264,22 @@
     </row>
     <row r="37" ht="22.5" spans="1:33">
       <c r="A37" s="1" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -21306,17 +21309,17 @@
     </row>
     <row r="38" ht="22.5" spans="1:33">
       <c r="A38" s="1" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -21349,11 +21352,11 @@
     </row>
     <row r="39" ht="22.5" spans="1:33">
       <c r="A39" s="1" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -21388,17 +21391,17 @@
     </row>
     <row r="40" ht="22.5" spans="1:33">
       <c r="A40" s="1" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -21431,13 +21434,13 @@
     </row>
     <row r="41" ht="22.5" spans="1:33">
       <c r="A41" s="1" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -21472,30 +21475,30 @@
     </row>
     <row r="42" ht="22.5" spans="1:33">
       <c r="A42" s="1" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -21519,13 +21522,13 @@
     </row>
     <row r="43" ht="22.5" spans="1:33">
       <c r="A43" s="1" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -21560,25 +21563,25 @@
     </row>
     <row r="44" ht="22.5" spans="1:33">
       <c r="A44" s="1" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -21605,19 +21608,19 @@
     </row>
     <row r="45" ht="22.5" spans="1:33">
       <c r="A45" s="1" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -21648,13 +21651,13 @@
     </row>
     <row r="46" ht="22.5" spans="1:33">
       <c r="A46" s="1" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -21689,11 +21692,11 @@
     </row>
     <row r="47" ht="22.5" spans="1:33">
       <c r="A47" s="1" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -21728,15 +21731,15 @@
     </row>
     <row r="48" ht="22.5" spans="1:33">
       <c r="A48" s="1" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -21769,13 +21772,13 @@
     </row>
     <row r="49" ht="22.5" spans="1:33">
       <c r="A49" s="1" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -21810,18 +21813,18 @@
     </row>
     <row r="50" ht="22.5" spans="1:33">
       <c r="A50" s="1" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -21853,10 +21856,10 @@
     </row>
     <row r="51" ht="22.5" spans="1:33">
       <c r="A51" s="1" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -21927,7 +21930,7 @@
     </row>
     <row r="53" ht="22.5" spans="1:33">
       <c r="A53" s="1" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -21964,54 +21967,54 @@
     </row>
     <row r="54" ht="22.5" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="55" ht="22.5" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" ht="22.5" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -22023,17 +22026,17 @@
     </row>
     <row r="57" ht="22.5" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -22041,7 +22044,7 @@
     </row>
     <row r="58" ht="22.5" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -22055,7 +22058,7 @@
     </row>
     <row r="59" ht="22.5" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -22069,33 +22072,33 @@
     </row>
     <row r="60" ht="22.5" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="J60" s="1"/>
     </row>
     <row r="61" ht="22.5" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -22109,10 +22112,10 @@
     </row>
     <row r="62" ht="25.5" spans="1:10">
       <c r="A62" s="2" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="1"/>
@@ -22125,13 +22128,13 @@
     </row>
     <row r="63" ht="22.5" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -22143,7 +22146,7 @@
     </row>
     <row r="64" ht="22.5" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -22157,7 +22160,7 @@
     </row>
     <row r="65" ht="22.5" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -22171,7 +22174,7 @@
     </row>
     <row r="66" ht="22.5" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -22185,7 +22188,7 @@
     </row>
     <row r="67" ht="22.5" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -22199,7 +22202,7 @@
     </row>
     <row r="68" ht="22.5" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -22213,7 +22216,7 @@
     </row>
     <row r="69" ht="22.5" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -22227,7 +22230,7 @@
     </row>
     <row r="70" ht="22.5" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -22241,10 +22244,10 @@
     </row>
     <row r="71" ht="22.5" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -22257,17 +22260,17 @@
     </row>
     <row r="72" ht="22.5" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -30793,8 +30796,8 @@
   <sheetPr/>
   <dimension ref="A1:IV104"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
@@ -31754,7 +31757,7 @@
       <c r="IU21" s="8"/>
       <c r="IV21" s="8"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="8" t="s">
         <v>1151</v>
       </c>
@@ -31776,177 +31779,180 @@
       <c r="J22" s="8" t="s">
         <v>1157</v>
       </c>
+      <c r="K22" s="8" t="s">
+        <v>1158</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="8" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="8" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -31954,19 +31960,19 @@
         <v>1086</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -31974,63 +31980,63 @@
         <v>1086</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="8" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="8" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="43" spans="1:256">
       <c r="A43" s="8" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="8" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -32279,529 +32285,529 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="8" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="8" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="8" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="8" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="8" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="8" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="8" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="8" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="8" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="8" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="8" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="8" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="8" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="8" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="8" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="8" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="8" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="8" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="8" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="8" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="8" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="8" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="8" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="8" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="8" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="8" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="8" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="8" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="8" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="8" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="8" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="8" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="8" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="8" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="8" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="8" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="8" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="8" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="8" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="8" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:256">
       <c r="A89" s="8" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -33060,7 +33066,7 @@
     </row>
     <row r="90" customFormat="1" spans="1:256">
       <c r="A90" s="8" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -33580,7 +33586,7 @@
     </row>
     <row r="92" customFormat="1" spans="1:256">
       <c r="A92" s="8" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -33840,7 +33846,7 @@
     </row>
     <row r="93" customFormat="1" spans="1:256">
       <c r="A93" s="8" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -34100,12 +34106,12 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="8" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="95" spans="1:256">
       <c r="A95" s="9" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -34366,11 +34372,11 @@
     <row r="96" spans="1:256">
       <c r="A96" s="9"/>
       <c r="B96" s="9" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
@@ -34627,13 +34633,13 @@
     </row>
     <row r="97" spans="1:256">
       <c r="A97" s="8" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
@@ -34890,43 +34896,43 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="8" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="8" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="8" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="8" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="9" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="8" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="8" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
   </sheetData>
@@ -34954,98 +34960,98 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="7" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="7" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="7" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="7" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="7" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="7" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="7" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="7" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="15" ht="22.5" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="16" ht="22.5" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -35056,11 +35062,11 @@
     </row>
     <row r="17" ht="22.5" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C17"/>
       <c r="D17" s="8" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="8"/>
@@ -35073,27 +35079,27 @@
     </row>
     <row r="18" ht="22.5" spans="1:12">
       <c r="A18" s="10" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="8" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -35101,19 +35107,19 @@
     </row>
     <row r="19" ht="22.5" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -35125,10 +35131,10 @@
     </row>
     <row r="20" ht="22.5" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -35143,13 +35149,13 @@
     </row>
     <row r="21" customFormat="1" spans="1:256">
       <c r="A21" s="8" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
@@ -35407,10 +35413,10 @@
     </row>
     <row r="22" ht="22.5" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -35425,10 +35431,10 @@
     </row>
     <row r="23" ht="22.5" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -35443,10 +35449,10 @@
     </row>
     <row r="24" ht="22.5" spans="1:256">
       <c r="A24" s="8" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -35705,10 +35711,10 @@
     </row>
     <row r="25" ht="22.5" spans="1:256">
       <c r="A25" s="8" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -35967,10 +35973,10 @@
     </row>
     <row r="26" ht="22.5" spans="1:256">
       <c r="A26" s="8" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -36229,18 +36235,18 @@
     </row>
     <row r="27" ht="22.5" spans="1:1">
       <c r="A27" s="8" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="28" ht="22.5" spans="1:256">
       <c r="A28" s="8" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -36498,19 +36504,19 @@
     </row>
     <row r="29" ht="22.5" spans="1:256">
       <c r="A29" s="8" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -36766,22 +36772,22 @@
     </row>
     <row r="30" ht="22.5" spans="1:256">
       <c r="A30" s="9" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
@@ -37036,10 +37042,10 @@
     </row>
     <row r="31" ht="22.5" spans="1:256">
       <c r="A31" s="8" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -37298,7 +37304,7 @@
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="7" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
   </sheetData>
@@ -37326,7 +37332,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -37334,84 +37340,84 @@
         <v>586</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="8" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="8" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -37419,328 +37425,328 @@
         <v>586</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="8" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="8" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="14" ht="23.65" customHeight="1" spans="2:4">
       <c r="B14" s="8" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="8" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="8" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="8" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="8" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="8" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="8" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="8" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="8" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="8" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="8" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="8" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="8" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="8" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="8" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="8" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="8" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="8" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="8" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="8" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="8" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="8" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="8" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="8" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="8" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="8" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="8" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="8" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="8" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="8" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="8" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="8" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="8" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="9" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B58" s="9"/>
     </row>
     <row r="59" ht="25.5" spans="1:2">
       <c r="A59" s="9" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="9" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B60" s="9"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="9" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B61" s="9"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="8" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="8" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="8" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="8" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -37750,7 +37756,7 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="8" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
   </sheetData>
@@ -37777,15 +37783,15 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>993</v>
@@ -37793,58 +37799,58 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="7" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="7" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -37852,332 +37858,332 @@
         <v>358</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="7" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="7" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:7">
       <c r="B13" s="7" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="7" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="C19" s="7"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="7" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
       <c r="A22" s="7" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="7" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="7" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="7" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="7" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="7" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="7" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="7" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="7" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="7" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="7" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="7" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="7" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="43" ht="22.5" spans="1:1">
       <c r="A43" s="8" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="44" ht="22.5" spans="1:2">
       <c r="A44" s="8" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B44" s="8"/>
     </row>
     <row r="45" ht="22.5" spans="1:2">
       <c r="A45" s="8" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B45" s="8"/>
     </row>
     <row r="46" ht="22.5" spans="1:2">
       <c r="A46" s="8" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B46" s="8"/>
     </row>
     <row r="47" ht="22.5" spans="1:2">
       <c r="A47" s="8" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B47" s="8"/>
     </row>
     <row r="48" ht="22.5" spans="1:2">
       <c r="A48" s="8" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B48" s="8"/>
     </row>
     <row r="49" ht="22.5" spans="1:2">
       <c r="A49" s="8" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="7" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
   </sheetData>
@@ -38202,38 +38208,38 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:256">
       <c r="A2" s="8" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="8"/>
@@ -38486,7 +38492,7 @@
     </row>
     <row r="3" customFormat="1" spans="1:256">
       <c r="A3" s="8" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -38746,7 +38752,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:256">
       <c r="A4" s="8" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -39006,7 +39012,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:256">
       <c r="A5" s="8" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -39266,11 +39272,11 @@
     </row>
     <row r="6" customFormat="1" spans="1:256">
       <c r="A6" s="8" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
@@ -39528,7 +39534,7 @@
     </row>
     <row r="7" customFormat="1" spans="1:256">
       <c r="A7" s="8" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -39788,71 +39794,71 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:256">
       <c r="A13" s="8" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -40101,7 +40107,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:256">
       <c r="A14" s="8" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
@@ -40109,7 +40115,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -40365,10 +40371,10 @@
     </row>
     <row r="15" customFormat="1" spans="1:256">
       <c r="A15" s="8" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -40627,7 +40633,7 @@
     </row>
     <row r="16" customFormat="1" spans="1:256">
       <c r="A16" s="8" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
@@ -40887,11 +40893,11 @@
     </row>
     <row r="17" customFormat="1" spans="1:256">
       <c r="A17" s="8" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="8" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -41149,7 +41155,7 @@
     </row>
     <row r="18" customFormat="1" spans="1:256">
       <c r="A18" s="8" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
@@ -41409,200 +41415,200 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="8" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="8" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="8" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="8" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="8" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="8" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="8" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="8" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="8" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="8" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="8" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="8" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="8" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="8" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -41610,196 +41616,196 @@
         <v>676</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="8" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="8" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="8" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="8" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="8" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="8" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="8" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="8" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="8" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="8" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="8" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="8" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="8" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="8" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="8" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="8" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="8" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="8" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="8" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="8" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="8" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="8" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="8" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="8" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="8" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
   </sheetData>
@@ -41813,8 +41819,8 @@
   <sheetPr/>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="25.5"/>
@@ -41829,349 +41835,349 @@
     </row>
     <row r="2" ht="22.5" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="4" ht="22.5" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="5" ht="22.5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="11" ht="22.5" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="14" ht="22.5" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="16" ht="22.5" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="17" ht="22.5" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="19" ht="22.5" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="20" ht="22.5" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="24" ht="22.5" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="25" ht="22.5" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="26" ht="22.5" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="29" ht="22.5" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="31" ht="22.5" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="32" ht="22.5" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="35" ht="22.5" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="36" ht="22.5" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="37" ht="22.5" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="39" ht="22.5" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="40" ht="22.5" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="41" ht="22.5" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="43" ht="22.5" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="44" ht="22.5" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="47" ht="22.5" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="49" ht="22.5" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="50" ht="22.5" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="52" ht="22.5" spans="1:1">
@@ -42196,20 +42202,20 @@
   <sheetData>
     <row r="1" ht="22.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" ht="22.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -42217,7 +42223,7 @@
     <row r="3" ht="22.5" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -42225,7 +42231,7 @@
     <row r="4" ht="22.5" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -42233,47 +42239,47 @@
     <row r="5" ht="22.5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" ht="22.5" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" ht="22.5" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" ht="22.5" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" ht="22.5" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
